--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED224CC-3BFF-44CB-81E7-9E3430673D8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9BD9D4-F325-40A0-BFAD-433BE37F0EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ambiente</t>
   </si>
@@ -42,7 +42,10 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>1220194200610</t>
+    <t>1120194100370</t>
+  </si>
+  <si>
+    <t>1120170200907</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,12 +425,18 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9BD9D4-F325-40A0-BFAD-433BE37F0EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D4871-CCA1-454F-AF0A-D566E44FC72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>1120194100370</t>
   </si>
   <si>
-    <t>1120170200907</t>
+    <t>1120170200908</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D4871-CCA1-454F-AF0A-D566E44FC72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5830F-FEF5-4DCC-8211-6A629C86EBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>1120194100370</t>
-  </si>
-  <si>
     <t>1120170200908</t>
+  </si>
+  <si>
+    <t>1120194100385</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>135</v>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5830F-FEF5-4DCC-8211-6A629C86EBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DD4D5-B9EC-40DD-8363-D85DB2D8C9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>1120170200908</t>
-  </si>
-  <si>
     <t>1120194100385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200917 </t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DD4D5-B9EC-40DD-8363-D85DB2D8C9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBAE88-FF0A-4044-8529-1DBEDAB6D4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>1120194100385</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200917 </t>
+    <t xml:space="preserve">1120170200926 </t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBAE88-FF0A-4044-8529-1DBEDAB6D4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52803590-37D2-4CBD-907D-0ABF59AB72BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>1120194100385</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200926 </t>
+    <t xml:space="preserve">1120170200928 </t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52803590-37D2-4CBD-907D-0ABF59AB72BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8782DD-1808-4B20-A9CB-7932CB32AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Ambiente</t>
   </si>
@@ -42,10 +42,16 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>1120194100385</t>
-  </si>
-  <si>
     <t xml:space="preserve">1120170200928 </t>
+  </si>
+  <si>
+    <t>0420194406717</t>
+  </si>
+  <si>
+    <t>1120194100412</t>
+  </si>
+  <si>
+    <t>1220194200667</t>
   </si>
 </sst>
 </file>
@@ -398,13 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DC6255-F86B-4EC4-8ADE-91A5B341A770}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -422,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -430,12 +439,34 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
     </row>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8782DD-1808-4B20-A9CB-7932CB32AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6BAA94-B4CE-49A4-A442-0BB439271986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Ambiente</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Importe</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200928 </t>
-  </si>
-  <si>
     <t>0420194406717</t>
   </si>
   <si>
@@ -52,6 +49,21 @@
   </si>
   <si>
     <t>1220194200667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301429 </t>
+  </si>
+  <si>
+    <t>NumOrden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200937 </t>
+  </si>
+  <si>
+    <t>1703271</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DC6255-F86B-4EC4-8ADE-91A5B341A770}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +427,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,49 +437,77 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6BAA94-B4CE-49A4-A442-0BB439271986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C29EB-F250-4AE8-9006-D2809E3F2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Ambiente</t>
   </si>
@@ -42,28 +42,31 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>0420194406717</t>
-  </si>
-  <si>
-    <t>1120194100412</t>
-  </si>
-  <si>
-    <t>1220194200667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008483 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301429 </t>
-  </si>
-  <si>
     <t>NumOrden</t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200937 </t>
-  </si>
-  <si>
-    <t>1703271</t>
+    <t>1078703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220194200684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120194100442 </t>
+  </si>
+  <si>
+    <t>1078702</t>
+  </si>
+  <si>
+    <t>0420194406830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008629 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200942 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301442 </t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -446,10 +449,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,8 +470,8 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>100</v>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1703284</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1703286</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +501,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1703285</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
+++ b/SuraClaims/ValidarPagoSiniestros_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C29EB-F250-4AE8-9006-D2809E3F2F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085F1A1-41DB-4F28-AD49-8402DC58BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>0420194406830</t>
   </si>
   <si>
-    <t xml:space="preserve">0420172008629 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120170200942 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301442 </t>
+    <t xml:space="preserve">1220170301466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200969 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172010228 </t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,11 +479,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1703284</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -492,20 +490,16 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
-        <v>1703286</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1703285</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
